--- a/ProjectsDoc/old/Django_Proje_Yonetimi_Taslagi.xlsx
+++ b/ProjectsDoc/old/Django_Proje_Yonetimi_Taslagi.xlsx
@@ -3953,7 +3953,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4148,14 +4148,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -7880,7 +7880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9085,7 +9087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
